--- a/static/app_documents/DWK-CustomerPortal/trapExample.xlsx
+++ b/static/app_documents/DWK-CustomerPortal/trapExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livebournemouthac-my.sharepoint.com/personal/s4820791_bournemouth_ac_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s4820791\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{47AAF475-5782-438B-84D0-E586F9BDB6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCDB2F5-012A-403B-AF16-5C63F4B700E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A15D4C6-5449-470C-8439-0D48052117DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0629FA22-114B-4CA2-91C5-62C05F1A2430}"/>
+    <workbookView xWindow="11445" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{0629FA22-114B-4CA2-91C5-62C05F1A2430}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Activity</t>
   </si>
@@ -53,18 +53,96 @@
     <t>Pre-Event Planning</t>
   </si>
   <si>
+    <t>Opening ticket assigning tasks, getting tasks accepted and getting approvals</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Reference system updates</t>
+  </si>
+  <si>
+    <t>Informing / validating the production unavailability with Technology Teams, Business teams &amp; User community</t>
+  </si>
+  <si>
     <t>Pre-Declaration</t>
   </si>
   <si>
+    <t>Pre-invocation decisions</t>
+  </si>
+  <si>
+    <t>Managing Jobs Schedules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardware Health Checks </t>
+  </si>
+  <si>
     <t>Source Shutdown</t>
   </si>
   <si>
+    <t>Drawing Passwords</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Bringing down services and servers</t>
+  </si>
+  <si>
+    <t>Splitting SRDF Replication, NAS replication or other Storage Replication (Dataguard)</t>
+  </si>
+  <si>
+    <t>Shutting down the Production/Primary site monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
     <t>Starting Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drawing Passwords </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>Bringing up services and servers</t>
+  </si>
+  <si>
+    <t>Mounting SAN/NAS storages and bringing them to online</t>
+  </si>
+  <si>
+    <t>Configuring Data Reverse Replication, Dataguard tasks (SR)</t>
+  </si>
+  <si>
+    <t>Configuring the Recovery specific configuration files (example: Non-UM MQ configuration)</t>
+  </si>
+  <si>
+    <t>Managing Jobs</t>
+  </si>
+  <si>
+    <t>Switching DR Pairs</t>
+  </si>
+  <si>
+    <t>Switching Load Balancers (local or Global) / Diverting user traffic to recovery location</t>
   </si>
   <si>
     <t>Environment
 Verification (same
 as Health checks)</t>
+  </si>
+  <si>
+    <t>Verifying the overall Hardware health check by the tech teams</t>
+  </si>
+  <si>
+    <t>AD Teams/ Production support checking the application overall health and data integrate</t>
+  </si>
+  <si>
+    <t>Turn over for Business</t>
+  </si>
+  <si>
+    <t>Verifying the Primary/Production environment is not active or functioning (DR)</t>
   </si>
 </sst>
 </file>
@@ -187,10 +265,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -202,25 +280,27 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,21 +308,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,24 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +652,7 @@
   <dimension ref="C4:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F28"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +673,7 @@
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -622,146 +681,234 @@
       </c>
     </row>
     <row r="7" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="13"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="13"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="12"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="13"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="13"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="13"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="18"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="13"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="13"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="18"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="13"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="18"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="13"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="18"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="13"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="13"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="20"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="C25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="13"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="16"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -785,6 +932,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c061f4d-e41b-4d2d-8578-b1148e13e8f7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008BD3C1FE13F19547AD0188400224973C" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13dbec3a33fb6ceea6ed5baf2ffe6e05">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c061f4d-e41b-4d2d-8578-b1148e13e8f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2325ce819393f771f33f963d05fc2c36" ns2:_="">
     <xsd:import namespace="3c061f4d-e41b-4d2d-8578-b1148e13e8f7"/>
@@ -944,16 +1101,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3c061f4d-e41b-4d2d-8578-b1148e13e8f7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42F4DAFF-1BAB-4C21-82CF-0B9D526D7034}">
   <ds:schemaRefs>
@@ -963,6 +1110,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C4A0EAB-2982-4AD2-BB70-6CF8E5983F28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3c061f4d-e41b-4d2d-8578-b1148e13e8f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED7D5A6F-8167-4B34-86D1-EA9190245D61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -978,14 +1135,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C4A0EAB-2982-4AD2-BB70-6CF8E5983F28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3c061f4d-e41b-4d2d-8578-b1148e13e8f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>